--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>behind</t>
   </si>
   <si>
     <t>shit</t>
@@ -82,21 +79,9 @@
     <t>scary</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -112,19 +97,19 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>love</t>
   </si>
   <si>
     <t>social</t>
@@ -488,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,10 +481,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -607,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -657,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -807,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8942307692307693</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -825,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.5862068965517241</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -849,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -857,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -875,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -899,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -907,13 +892,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -925,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="L10">
         <v>34</v>
       </c>
-      <c r="K10">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
       <c r="M10">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,13 +942,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -975,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11">
-        <v>0.5066666666666667</v>
-      </c>
-      <c r="L11">
-        <v>38</v>
-      </c>
       <c r="M11">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1007,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5625</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1025,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.2083333333333333</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -1049,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,13 +1042,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1075,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.04098360655737705</v>
+        <v>0.03916211293260474</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,13 +1092,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.45</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1133,13 +1118,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.425531914893617</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1151,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1159,13 +1144,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4202898550724637</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1177,111 +1162,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
